--- a/biology/Médecine/Syndrome_de_Shulman/Syndrome_de_Shulman.xlsx
+++ b/biology/Médecine/Syndrome_de_Shulman/Syndrome_de_Shulman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Syndrome de Shulman ou fasciite avec éosinophilie (aussi appelé maladie de Shulman ou fasciite à éosinophiles) est une affection caractérisée par une infiltration œdémateuse et indurée des aponévroses périmusculaires profondes et des cloisons musculaires.
 Ces infiltrats siègent préférentiellement au tronc et à la racine des membres entrainant une importante limitation de la mobilité articulaire.
@@ -513,10 +525,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syndrome est une maladie rare que l'on retrouve plus souvent chez l'homme entre vingt et soixante ans (mais il existe aussi chez les enfants)[1],[2].
-La maladie se déclare couramment en automne ou en hiver (saison froide)[2]. Les signes de la maladies sont généralement remarqués lors d'un effort.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syndrome est une maladie rare que l'on retrouve plus souvent chez l'homme entre vingt et soixante ans (mais il existe aussi chez les enfants),.
+La maladie se déclare couramment en automne ou en hiver (saison froide). Les signes de la maladies sont généralement remarqués lors d'un effort.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Traitement et pronostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement courant comprend une corticothérapie[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement courant comprend une corticothérapie,.
 Le pronostic se révèle généralement favorable si la pathologie est détecté précocement (avant fibrose), que le traitement est administré immédiatement et qu'il n'y a pas de localisations viscérales (très rare).
 </t>
         </is>
